--- a/Bill of Materials/BOM.xlsx
+++ b/Bill of Materials/BOM.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Github\bleduino-hardware\Bill of Materials\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="21405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="2060" yWindow="200" windowWidth="20500" windowHeight="13100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
   <si>
     <t>Part</t>
   </si>
@@ -42,18 +42,12 @@
     <t>RES 1K</t>
   </si>
   <si>
-    <t>Crystal</t>
-  </si>
-  <si>
     <t>3.20mm x 2.50mm</t>
   </si>
   <si>
     <t>LED Blue</t>
   </si>
   <si>
-    <t>3x1 Male Headers</t>
-  </si>
-  <si>
     <t>Anti-Static Varistor</t>
   </si>
   <si>
@@ -204,14 +198,167 @@
     <t>Through-hole</t>
   </si>
   <si>
-    <t>SMD - 5 Through - 4</t>
+    <t>3x2 Male Headers</t>
+  </si>
+  <si>
+    <t>Top Pads</t>
+  </si>
+  <si>
+    <t>Bottom Pads</t>
+  </si>
+  <si>
+    <t>Top Quantity</t>
+  </si>
+  <si>
+    <t>Bottom Quantity</t>
+  </si>
+  <si>
+    <t>Pads:</t>
+  </si>
+  <si>
+    <t>Digikey #</t>
+  </si>
+  <si>
+    <t>CKN10246CT-ND</t>
+  </si>
+  <si>
+    <t>296-18476-1-ND</t>
+  </si>
+  <si>
+    <t>NCP1117ST50T3GOSCT-ND</t>
+  </si>
+  <si>
+    <t>CG0603MLC-05E</t>
+  </si>
+  <si>
+    <t>ATmega328p</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-MURCT-ND</t>
+  </si>
+  <si>
+    <t>ATMEGA32U4-MU-ND</t>
+  </si>
+  <si>
+    <t>MOUSER: 949-NRF8001-R2Q32-T</t>
+  </si>
+  <si>
+    <t>445-4858-1-ND</t>
+  </si>
+  <si>
+    <t>490-3085-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1660-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1004-1-ND</t>
+  </si>
+  <si>
+    <t>311-1017-1-ND</t>
+  </si>
+  <si>
+    <t>311-1036-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1010-1-ND</t>
+  </si>
+  <si>
+    <t>311-1372-1-ND</t>
+  </si>
+  <si>
+    <t>587-1221-1-ND</t>
+  </si>
+  <si>
+    <t>311-1018-1-ND</t>
+  </si>
+  <si>
+    <t>399-10445-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1555-1-ND</t>
+  </si>
+  <si>
+    <t>CTX732CT-ND</t>
+  </si>
+  <si>
+    <t>Crystal 16Mhz</t>
+  </si>
+  <si>
+    <t>535-9536-1-ND</t>
+  </si>
+  <si>
+    <t>1N4148WS-FDICT-ND</t>
+  </si>
+  <si>
+    <t>587-1590-1-ND</t>
+  </si>
+  <si>
+    <t>CI100505-15NJCT-ND</t>
+  </si>
+  <si>
+    <t>PCD1905CT-ND</t>
+  </si>
+  <si>
+    <t>PCD1907CT-ND</t>
+  </si>
+  <si>
+    <t>PCD1934CT-ND</t>
+  </si>
+  <si>
+    <t>475-2816-1-ND</t>
+  </si>
+  <si>
+    <t>516-1425-1-ND</t>
+  </si>
+  <si>
+    <t>516-1420-1-ND</t>
+  </si>
+  <si>
+    <t>516-2856-1-ND</t>
+  </si>
+  <si>
+    <t>BSS138-FDICT-ND</t>
+  </si>
+  <si>
+    <t>568-7579-1-ND</t>
+  </si>
+  <si>
+    <t>MF-NSMF050-2CT-ND</t>
+  </si>
+  <si>
+    <t>P10KJCT-ND</t>
+  </si>
+  <si>
+    <t>P1.0KJCT-ND</t>
+  </si>
+  <si>
+    <t>P20KJCT-ND</t>
+  </si>
+  <si>
+    <t>P22KJCT-ND</t>
+  </si>
+  <si>
+    <t>P22JCT-ND</t>
+  </si>
+  <si>
+    <t>A97800CT-ND</t>
+  </si>
+  <si>
+    <t>MH2029-300YCT-ND</t>
+  </si>
+  <si>
+    <t>2.4Ghz Chip Antenna</t>
+  </si>
+  <si>
+    <t>ANT-2.45-CHPCT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -236,6 +383,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,10 +413,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -294,8 +483,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="31">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,7 +582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,7 +617,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,7 +794,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -574,22 +802,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="6"/>
-    <col min="4" max="4" width="11" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="4"/>
+    <col min="1" max="1" width="30.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="6"/>
+    <col min="4" max="4" width="17.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="4"/>
+    <col min="10" max="10" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -603,147 +832,295 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>D2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>D2*G2</f>
+        <v>5</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H45" si="0">D3*F3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I45" si="1">D3*G3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4">
         <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
+      <c r="C6" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="4">
+        <v>33</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4">
         <v>45</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4">
         <v>33</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="E8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -751,322 +1128,643 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>4</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="4">
-        <v>4</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
       <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="B28" s="4">
         <v>1</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
@@ -1074,257 +1772,600 @@
         <v>1</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="12">
       <c r="A30" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12">
       <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="12">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="B33" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" s="4">
         <v>2</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="12">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B34" s="4">
-        <v>3</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D34" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="12">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35" s="4">
         <v>3</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="12">
       <c r="A36" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B36" s="4">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D36" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="12">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="12">
+      <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="4">
-        <v>2</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="B38" s="4">
+        <v>11</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="12">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4">
+        <v>5</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="12">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="12">
+      <c r="A41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="12">
+      <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="12">
+      <c r="A43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="4">
+        <v>4</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="12">
+      <c r="A44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12">
+      <c r="A45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8">
+        <v>5</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="4">
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="4">
-        <v>2</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="4">
-        <v>2</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="4">
-        <v>2</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4">
-        <v>1</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="4">
-        <v>2</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="4">
-        <v>4</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" ht="12.75" customHeight="1">
+      <c r="G47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47">
+        <f>SUM(H2:H45)</f>
+        <v>196</v>
+      </c>
+      <c r="I47">
+        <f>SUM(I2:I45)</f>
+        <v>94</v>
+      </c>
+      <c r="J47" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A2:D49">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <ignoredErrors>
-    <ignoredError sqref="C8:C9 C5 C10:C19 C25:C33 C23 C36:C42" numberStoredAsText="1"/>
+    <ignoredError sqref="C9:C10 C5 C11:C20 C27:C34 C24 C37:C43" numberStoredAsText="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Bill of Materials/BOM.xlsx
+++ b/Bill of Materials/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20496" windowHeight="7632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="194">
   <si>
     <t>Part</t>
   </si>
@@ -202,9 +202,6 @@
     <t>15PF 16V 5% 0402</t>
   </si>
   <si>
-    <t>0.1UF 25V 5% 0402</t>
-  </si>
-  <si>
     <t>1000PF 10V 10% 0402</t>
   </si>
   <si>
@@ -247,18 +244,9 @@
     <t>22PF 16V 5% 0402</t>
   </si>
   <si>
-    <t>CAP TANT 22UF 25V 10% 1206</t>
-  </si>
-  <si>
     <t>0.033UF 10V 10% 0402</t>
   </si>
   <si>
-    <t>10UH 50mA  5% 0402</t>
-  </si>
-  <si>
-    <t>15NH 50mA %5 0402</t>
-  </si>
-  <si>
     <t>CRYSTAL 16MHZ 20PF SMD</t>
   </si>
   <si>
@@ -271,9 +259,6 @@
     <t>DIODE 10V SOD-323</t>
   </si>
   <si>
-    <t>MH2029-300YCT</t>
-  </si>
-  <si>
     <t>BALUN</t>
   </si>
   <si>
@@ -286,191 +271,338 @@
     <t>2450BM14A0002T</t>
   </si>
   <si>
+    <t xml:space="preserve">GREEN ~570NM DIFFUSED 0603 </t>
+  </si>
+  <si>
+    <t>BLUE ~470NM DIFFUSED 0603</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED ~630NM DIFFUSED 0603 </t>
+  </si>
+  <si>
+    <t>YELLOW ~587NM DIFFUSED 0603</t>
+  </si>
+  <si>
+    <t>BSS138-7-F</t>
+  </si>
+  <si>
+    <t>Diodes Inc.</t>
+  </si>
+  <si>
+    <t>PMV48XP,215</t>
+  </si>
+  <si>
+    <t>NXP</t>
+  </si>
+  <si>
+    <t>PTC 500mA</t>
+  </si>
+  <si>
+    <t>20K J 1/8W 0402</t>
+  </si>
+  <si>
+    <t>1K J 1/4W 0402</t>
+  </si>
+  <si>
+    <t>10K J 1/8W 0402</t>
+  </si>
+  <si>
+    <t>22R J 1/4W 0402</t>
+  </si>
+  <si>
+    <t>22K J 1/8W 0402</t>
+  </si>
+  <si>
+    <t>SWITCH TACTILE KMR2</t>
+  </si>
+  <si>
+    <t>10118194-0001LF</t>
+  </si>
+  <si>
+    <t>SMD/Through-hole</t>
+  </si>
+  <si>
+    <t>FCI</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>JP4</t>
+  </si>
+  <si>
+    <t>Z1, Z2</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>NRF8001</t>
+  </si>
+  <si>
+    <t>C1, C2, C6, C9, C10, C11, C18, C22, C30, C31</t>
+  </si>
+  <si>
+    <t>C20, C21, C28, C29</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C5, C4, C7</t>
+  </si>
+  <si>
+    <t>C16, C24</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C12, C13, C32, C33</t>
+  </si>
+  <si>
+    <t>C3, C14</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y2, Y3, Y4 </t>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>BLE_CONN</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>RX, TX</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3</t>
+  </si>
+  <si>
+    <t>T1, T2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R2, R4, R9, R12, R14, R18, R21, R22, R23, R24 </t>
+  </si>
+  <si>
+    <t>R5, R6, R7, R8, R19</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R3, R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Digikey #</t>
+  </si>
+  <si>
+    <t>296-18476-1-ND</t>
+  </si>
+  <si>
+    <t>NCP1117ST50T3GOSCT-ND</t>
+  </si>
+  <si>
+    <t>CG0603MLC-05ECT-ND</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-MURCT-ND</t>
+  </si>
+  <si>
+    <t>ATMEGA32U4-MU-ND</t>
+  </si>
+  <si>
+    <t>MOUSER: 949-NRF8001-R2Q32-T</t>
+  </si>
+  <si>
+    <t>NEWARK: 44W4473</t>
+  </si>
+  <si>
+    <t>311-1017-1-ND</t>
+  </si>
+  <si>
+    <t>311-1036-1-ND</t>
+  </si>
+  <si>
+    <t>311-1372-1-ND</t>
+  </si>
+  <si>
+    <t>445-4978-1-ND</t>
+  </si>
+  <si>
+    <t>0.1UF 25V 10% 0402</t>
+  </si>
+  <si>
+    <t>587-1456-1-ND</t>
+  </si>
+  <si>
+    <t>490-6359-1-ND</t>
+  </si>
+  <si>
+    <t>311-1018-1-ND</t>
+  </si>
+  <si>
+    <t>CAP TANT 22UF 10V 20% 1206</t>
+  </si>
+  <si>
+    <t>511-1465-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1555-1-ND</t>
+  </si>
+  <si>
+    <t>445-3166-1-ND</t>
+  </si>
+  <si>
+    <t>10UH 20mA  10% 0603</t>
+  </si>
+  <si>
+    <t>CI100505-15NJCT-ND</t>
+  </si>
+  <si>
+    <t>15NH 20mA 10% 0402</t>
+  </si>
+  <si>
+    <t>CTX732CT-ND</t>
+  </si>
+  <si>
+    <t>535-9536-1-ND</t>
+  </si>
+  <si>
+    <t>1N4148WS-FDICT-ND</t>
+  </si>
+  <si>
+    <t>MH2029-070YCT-ND</t>
+  </si>
+  <si>
+    <t>1A 0805</t>
+  </si>
+  <si>
+    <t>475-2816-1-ND</t>
+  </si>
+  <si>
+    <t>516-1425-1-ND</t>
+  </si>
+  <si>
+    <t>516-1420-1-ND</t>
+  </si>
+  <si>
+    <t>516-2856-1-ND</t>
+  </si>
+  <si>
+    <t>BSS138-FDICT-ND</t>
+  </si>
+  <si>
+    <t>568-7579-1-ND</t>
+  </si>
+  <si>
+    <t>MF-NSMF050-2CT-ND</t>
+  </si>
+  <si>
+    <t>P10KJCT-ND</t>
+  </si>
+  <si>
+    <t>P1.0KJCT-ND</t>
+  </si>
+  <si>
+    <t>P20KJCT-ND</t>
+  </si>
+  <si>
+    <t>P22JCT-ND</t>
+  </si>
+  <si>
+    <t>P22KJCT-ND</t>
+  </si>
+  <si>
+    <t>CKN10246CT-ND</t>
+  </si>
+  <si>
+    <t>609-4618-1-ND</t>
+  </si>
+  <si>
+    <t>Through Hole</t>
+  </si>
+  <si>
+    <t>JP1, JP3</t>
+  </si>
+  <si>
+    <t>Don't source or populate items in RED</t>
+  </si>
+  <si>
+    <t>Descriptions are only minimum tolerances/requirements.  They don't have to match exactly the digikey items.</t>
+  </si>
+  <si>
     <t>1x14 Male Headers</t>
   </si>
   <si>
-    <t xml:space="preserve">GREEN ~570NM DIFFUSED 0603 </t>
-  </si>
-  <si>
-    <t>BLUE ~470NM DIFFUSED 0603</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RED ~630NM DIFFUSED 0603 </t>
-  </si>
-  <si>
-    <t>YELLOW ~587NM DIFFUSED 0603</t>
-  </si>
-  <si>
-    <t>BSS138-7-F</t>
-  </si>
-  <si>
-    <t>Diodes Inc.</t>
-  </si>
-  <si>
-    <t>PMV48XP,215</t>
-  </si>
-  <si>
-    <t>NXP</t>
-  </si>
-  <si>
-    <t>PTC 500mA</t>
-  </si>
-  <si>
-    <t>20K J 1/8W 0402</t>
-  </si>
-  <si>
-    <t>1K J 1/4W 0402</t>
-  </si>
-  <si>
-    <t>10K J 1/8W 0402</t>
-  </si>
-  <si>
-    <t>22R J 1/4W 0402</t>
-  </si>
-  <si>
-    <t>22K J 1/8W 0402</t>
-  </si>
-  <si>
-    <t>SWITCH TACTILE KMR2</t>
-  </si>
-  <si>
-    <t>10118194-0001LF</t>
-  </si>
-  <si>
-    <t>SMD/Through-hole</t>
-  </si>
-  <si>
-    <t>FCI</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>JP4</t>
-  </si>
-  <si>
-    <t>JP1, JP3</t>
-  </si>
-  <si>
-    <t>Z1, Z2</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>NRF8001</t>
-  </si>
-  <si>
-    <t>C1, C2, C6, C9, C10, C11, C18, C22, C30, C31</t>
-  </si>
-  <si>
-    <t>C20, C21, C28, C29</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>C5, C4, C7</t>
-  </si>
-  <si>
-    <t>C16, C24</t>
-  </si>
-  <si>
-    <t>C23</t>
-  </si>
-  <si>
-    <t>C12, C13, C32, C33</t>
-  </si>
-  <si>
-    <t>C3, C14</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y2, Y3, Y4 </t>
-  </si>
-  <si>
-    <t>Y5</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>BLE_CONN</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>RX, TX</t>
-  </si>
-  <si>
-    <t>Q1, Q2, Q3</t>
-  </si>
-  <si>
-    <t>T1, T2</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1, R2, R4, R9, R12, R14, R18, R21, R22, R23, R24 </t>
-  </si>
-  <si>
-    <t>R5, R6, R7, R8, R19</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R3, R10</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>RESET</t>
-  </si>
-  <si>
-    <t>X2</t>
+    <t>CONN HEADER MALE 14POS.1"</t>
+  </si>
+  <si>
+    <t>CONN HEADER MALE 3POS.1"</t>
+  </si>
+  <si>
+    <t>929400E-01-14-ND</t>
+  </si>
+  <si>
+    <t>929400E-01-03-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -495,13 +627,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -513,10 +663,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -556,8 +708,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -828,7 +1004,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -836,51 +1012,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="45.88671875" customWidth="1"/>
+    <col min="10" max="10" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -888,25 +1069,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -914,93 +1098,111 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="I3" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="19">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="G4" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="19">
+        <v>14</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>38</v>
+      <c r="F6" s="4">
+        <v>2</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1008,25 +1210,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>45</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -1034,461 +1239,512 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>33</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>33</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="4">
+        <v>150</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4">
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="B17" s="4">
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="F20" s="14">
+        <v>2</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="4">
-        <v>2</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="F21" s="14">
+        <v>2</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="14">
+        <v>2</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="4">
         <v>3</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>4</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -1496,95 +1752,107 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
@@ -1592,73 +1860,82 @@
         <v>1</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="12" t="s">
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="4">
         <v>2</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="4">
-        <v>2</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="4">
         <v>3</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>3</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -1666,25 +1943,28 @@
         <v>2</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>3</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G34" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -1692,47 +1972,53 @@
         <v>1</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="4">
-        <v>2</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="4">
         <v>11</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="4">
-        <v>2</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -1740,95 +2026,107 @@
         <v>5</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="4">
-        <v>2</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="4">
-        <v>2</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="4">
         <v>2</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="4">
-        <v>2</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="4">
-        <v>2</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
@@ -1836,21 +2134,24 @@
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="4">
+        <v>183</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="4">
         <v>4</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
@@ -1858,21 +2159,35 @@
         <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="G42" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>149</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
     </row>
   </sheetData>
   <sortState ref="A2:D49">
@@ -1881,7 +2196,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D6 D11:D19 D28 D35:D40 D29:D32" numberStoredAsText="1"/>
+    <ignoredError sqref="E6 E11:E19 E28 E35:E40 E29:E32" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>